--- a/data/input/employee_absence_data_45.xlsx
+++ b/data/input/employee_absence_data_45.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5876</v>
+        <v>20781</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bárbara Teixeira</t>
+          <t>Guilherme Nascimento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45096</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>9701.280000000001</v>
+        <v>6426.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56744</v>
+        <v>69726</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. João das Neves</t>
+          <t>Laís Casa Grande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,109 +511,109 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45093</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>7111.74</v>
+        <v>8853.889999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29975</v>
+        <v>92172</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antônio da Rocha</t>
+          <t>Asafe Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>7213.77</v>
+        <v>6272.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>75741</v>
+        <v>6339</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Milena Ramos</t>
+          <t>Sr. Rodrigo das Neves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>6025.5</v>
+        <v>9289.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>77260</v>
+        <v>69213</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mariah Moura</t>
+          <t>Lucas da Luz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45095</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>11830.23</v>
+        <v>5671.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>51829</v>
+        <v>64630</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>José Miguel Pires</t>
+          <t>Benjamin Fogaça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -627,129 +627,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45079</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>6852.35</v>
+        <v>8783.780000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11692</v>
+        <v>47401</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Stephany Dias</t>
+          <t>Vinicius Borges</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>6662.29</v>
+        <v>2381.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8507</v>
+        <v>60549</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pedro Miguel Andrade</t>
+          <t>Sophie Mendes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45097</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>4342.56</v>
+        <v>9417.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96923</v>
+        <v>30199</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maya Silva</t>
+          <t>Maysa Pires</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45101</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>10561.32</v>
+        <v>4954.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1522</v>
+        <v>4286</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Lunna Nascimento</t>
+          <t>Sr. Antony da Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>5646.84</v>
+        <v>5082.97</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_45.xlsx
+++ b/data/input/employee_absence_data_45.xlsx
@@ -464,292 +464,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20781</v>
+        <v>93425</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guilherme Nascimento</t>
+          <t>Leonardo Pereira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45080</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>6426.95</v>
+        <v>2273.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69726</v>
+        <v>37343</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laís Casa Grande</t>
+          <t>Bento da Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45085</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>8853.889999999999</v>
+        <v>5495.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92172</v>
+        <v>34941</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Asafe Costa</t>
+          <t>Heloisa da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45083</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>6272.65</v>
+        <v>3532.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6339</v>
+        <v>89226</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Rodrigo das Neves</t>
+          <t>Pedro Henrique Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45099</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>9289.59</v>
+        <v>9130.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69213</v>
+        <v>98051</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lucas da Luz</t>
+          <t>Vitor Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45089</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>5671.9</v>
+        <v>9385.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64630</v>
+        <v>13686</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Benjamin Fogaça</t>
+          <t>Valentim Monteiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45094</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>8783.780000000001</v>
+        <v>5540.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>47401</v>
+        <v>46153</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vinicius Borges</t>
+          <t>Marcos Vinicius Viana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45104</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>2381.64</v>
+        <v>5379.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60549</v>
+        <v>62120</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sophie Mendes</t>
+          <t>Miguel Lima</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45101</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>9417.77</v>
+        <v>8392.969999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30199</v>
+        <v>99495</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maysa Pires</t>
+          <t>Rebeca Vargas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45095</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>4954.93</v>
+        <v>2900.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4286</v>
+        <v>29593</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Antony da Costa</t>
+          <t>Sr. Luigi Gonçalves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>5082.97</v>
+        <v>2294.71</v>
       </c>
     </row>
   </sheetData>
